--- a/Examples.Library/src/main/resources/xlsx/Home inventory.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Home inventory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpreadCore\Source\Demos\ExamplesDemo\Examples\Resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GcExcel\ds-excel-net\Source\Demos\ExamplesDemo\Examples\Resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A78BBB-C453-4CCF-AF1D-7C8A87C35140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Contents Inventory List" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Home Contents Inventory List'!$11:$11</definedName>
     <definedName name="RoomList">RoomLookup[]</definedName>
-    <definedName name="Slicer_Room__area">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
-      </x15:slicerCaches>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -283,12 +281,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="167" formatCode="_)@"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="_)@"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -667,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -680,7 +678,7 @@
     <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,22 +690,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,7 +739,7 @@
     <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,16 +751,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +865,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -877,7 +875,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -896,7 +894,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -906,7 +904,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <alignment horizontal="right" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -960,7 +958,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1249,11 +1247,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Home Inventory Table" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Home Inventory Slicer" pivot="0" table="0" count="10">
+    <tableStyle name="Home Inventory Slicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="Home Inventory Table" pivot="0" count="7">
+    <tableStyle name="Home Inventory Table" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="34"/>
       <tableStyleElement type="headerRow" dxfId="33"/>
       <tableStyleElement type="totalRow" dxfId="32"/>
@@ -1563,84 +1561,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>847725</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main">
-      <mc:Choice Requires="a15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Room/&#10;area" descr="Filters Home Inventory table by selected items in Slicer." title="Room Area Slicer">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Room/&#10;area"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9525" y="2981325"/>
-              <a:ext cx="12096750" cy="695325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers can be used in at least Excel 15.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2010 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1897,42 +1817,26 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Room__area" sourceName="Room/_x000a_area">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="3"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Room/_x000a_area" cache="Slicer_Room__area" caption="Click a room below to filter your inventory list by the selected room. Hold Ctrl to select multiple rooms." columnCount="6" style="SlicerStyleDark2" rowHeight="193675"/>
-</slicers>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
-  <autoFilter ref="A11:K16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+  <autoFilter ref="A11:K16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="21" name="Item #" totalsRowLabel="TOTALS" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Item #" totalsRowLabel="TOTALS" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>A11+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <totalsRowFormula>"INVENTORY ITEMS: "&amp;SUBTOTAL(103,InventoryTable[Room/
 area])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Item/_x000a_description" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="Make/_x000a_model" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="6" name="Serial number/_x000a_ID number" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" name="Date_x000a_purchased" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="Where purchased" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="10" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="13" name="Notes" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="14" name="Photo?" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item/_x000a_description" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Make/_x000a_model" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Serial number/_x000a_ID number" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date_x000a_purchased" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Where purchased" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Notes" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Photo?" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1944,13 +1848,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A3:A15"/>
-  <sortState ref="A4:A15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A3:A15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Room/Area" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Room/Area" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2132,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -2192,7 +2096,7 @@
       </c>
       <c r="H2" s="59">
         <f ca="1">TODAY()-35</f>
-        <v>42906</v>
+        <v>43749</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="38"/>
@@ -2573,10 +2477,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Whoops!" error="The room you entered hasn't been added to the Room Lookup sheet, Room/Area list. You can click Yes to use your entry but it won't automatically be added to the drop down list. " sqref="B12:B16">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Whoops!" error="The room you entered hasn't been added to the Room Lookup sheet, Room/Area list. You can click Yes to use your entry but it won't automatically be added to the drop down list. " sqref="B12:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>RoomList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please select an entry from the list. To add or change items, use the Room/Area table on the Room Lookup worksheet. " sqref="A12:A16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please select an entry from the list. To add or change items, use the Room/Area table on the Room Lookup worksheet. " sqref="A12:A16" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2608,17 +2512,12 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
